--- a/results/Homeopathy_excluded/mod2.antielite_salience.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.antielite_salience.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0746650944747779</v>
+        <v>-0.07466468495834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361498420824015</v>
+        <v>0.0361497564275047</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.145517483003095</v>
+        <v>-0.145516905606144</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00381270594646048</v>
+        <v>-0.00381246431053549</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.06543348943497</v>
+        <v>-2.06542705503628</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0388820025931477</v>
+        <v>0.0388826108645786</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0391508660389887</v>
+        <v>0.0391513223400336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0402281513191476</v>
+        <v>0.0402280231683674</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.039694861711168</v>
+        <v>-0.0396941542392093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.117996593789145</v>
+        <v>0.117996798919277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.97322061181454</v>
+        <v>0.973235054980767</v>
       </c>
       <c r="H3" t="n">
-        <v>0.330443668764259</v>
+        <v>0.33043649203448</v>
       </c>
     </row>
   </sheetData>
